--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.09870433333333</v>
+        <v>12.780993</v>
       </c>
       <c r="H2">
-        <v>30.296113</v>
+        <v>38.342979</v>
       </c>
       <c r="I2">
-        <v>0.2386825353037557</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="J2">
-        <v>0.2399792957636754</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451336</v>
+        <v>0.6671056666666667</v>
       </c>
       <c r="N2">
-        <v>1.354008</v>
+        <v>2.001317</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="Q2">
-        <v>4.557908818989333</v>
+        <v>8.526272855927001</v>
       </c>
       <c r="R2">
-        <v>41.021179370904</v>
+        <v>76.73645570334301</v>
       </c>
       <c r="S2">
-        <v>0.2386825353037557</v>
+        <v>0.1744619375126207</v>
       </c>
       <c r="T2">
-        <v>0.2399792957636754</v>
+        <v>0.1754911369796931</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.763789333333333</v>
+        <v>12.780993</v>
       </c>
       <c r="H3">
-        <v>8.291368</v>
+        <v>38.342979</v>
       </c>
       <c r="I3">
-        <v>0.06532206740106992</v>
+        <v>0.1912157377894449</v>
       </c>
       <c r="J3">
-        <v>0.06567696171312387</v>
+        <v>0.1923437725816443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.451336</v>
+        <v>0.06406299999999999</v>
       </c>
       <c r="N3">
-        <v>1.354008</v>
+        <v>0.192189</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="Q3">
-        <v>1.247397622549334</v>
+        <v>0.818788754559</v>
       </c>
       <c r="R3">
-        <v>11.226578602944</v>
+        <v>7.369098791031</v>
       </c>
       <c r="S3">
-        <v>0.06532206740106992</v>
+        <v>0.01675380027682424</v>
       </c>
       <c r="T3">
-        <v>0.06567696171312387</v>
+        <v>0.01685263560195123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.29862566666667</v>
+        <v>2.763789333333333</v>
       </c>
       <c r="H4">
-        <v>63.89587700000001</v>
+        <v>8.291368</v>
       </c>
       <c r="I4">
-        <v>0.503392297151022</v>
+        <v>0.04134890117441825</v>
       </c>
       <c r="J4">
-        <v>0.5061272238013645</v>
+        <v>0.04159282983679289</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.451336</v>
+        <v>0.6671056666666667</v>
       </c>
       <c r="N4">
-        <v>1.354008</v>
+        <v>2.001317</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="Q4">
-        <v>9.612836513890668</v>
+        <v>1.843739525739556</v>
       </c>
       <c r="R4">
-        <v>86.51552862501602</v>
+        <v>16.593655731656</v>
       </c>
       <c r="S4">
-        <v>0.503392297151022</v>
+        <v>0.03772602347642687</v>
       </c>
       <c r="T4">
-        <v>0.5061272238013645</v>
+        <v>0.03794857977615782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.763789333333333</v>
+      </c>
+      <c r="H5">
+        <v>8.291368</v>
+      </c>
+      <c r="I5">
+        <v>0.04134890117441825</v>
+      </c>
+      <c r="J5">
+        <v>0.04159282983679289</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6858865000000001</v>
-      </c>
-      <c r="H5">
-        <v>1.371773</v>
-      </c>
-      <c r="I5">
-        <v>0.01621090422562982</v>
-      </c>
-      <c r="J5">
-        <v>0.01086598529942189</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.451336</v>
+        <v>0.06406299999999999</v>
       </c>
       <c r="N5">
-        <v>1.354008</v>
+        <v>0.192189</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.08761726660423996</v>
       </c>
       <c r="Q5">
-        <v>0.309565269364</v>
+        <v>0.1770566360613333</v>
       </c>
       <c r="R5">
-        <v>1.857391616184</v>
+        <v>1.593509724552</v>
       </c>
       <c r="S5">
-        <v>0.01621090422562982</v>
+        <v>0.003622877697991375</v>
       </c>
       <c r="T5">
-        <v>0.01086598529942189</v>
+        <v>0.003644250060635069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,46 +788,356 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.463188</v>
+        <v>29.29107666666667</v>
       </c>
       <c r="H6">
-        <v>22.389564</v>
+        <v>87.87323000000001</v>
       </c>
       <c r="I6">
-        <v>0.1763921959185226</v>
+        <v>0.4382221972474175</v>
       </c>
       <c r="J6">
-        <v>0.1773505334224143</v>
+        <v>0.4408073918078855</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.451336</v>
+        <v>0.6671056666666667</v>
       </c>
       <c r="N6">
-        <v>1.354008</v>
+        <v>2.001317</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.91238273339576</v>
       </c>
       <c r="Q6">
-        <v>3.368405419168</v>
+        <v>19.54024322710112</v>
       </c>
       <c r="R6">
-        <v>30.315648772512</v>
+        <v>175.86218904391</v>
       </c>
       <c r="S6">
-        <v>0.1763921959185226</v>
+        <v>0.3998263661592946</v>
       </c>
       <c r="T6">
-        <v>0.1773505334224143</v>
+        <v>0.4021850530387343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29.29107666666667</v>
+      </c>
+      <c r="H7">
+        <v>87.87323000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.4382221972474175</v>
+      </c>
+      <c r="J7">
+        <v>0.4408073918078855</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.06406299999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.192189</v>
+      </c>
+      <c r="O7">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="P7">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="Q7">
+        <v>1.876474244496667</v>
+      </c>
+      <c r="R7">
+        <v>16.88826820047</v>
+      </c>
+      <c r="S7">
+        <v>0.03839583108812281</v>
+      </c>
+      <c r="T7">
+        <v>0.03862233876915117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1.175998</v>
+      </c>
+      <c r="H8">
+        <v>2.351996</v>
+      </c>
+      <c r="I8">
+        <v>0.01759404180949881</v>
+      </c>
+      <c r="J8">
+        <v>0.01179855596866736</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6671056666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.001317</v>
+      </c>
+      <c r="O8">
+        <v>0.91238273339576</v>
+      </c>
+      <c r="P8">
+        <v>0.91238273339576</v>
+      </c>
+      <c r="Q8">
+        <v>0.7845149297886668</v>
+      </c>
+      <c r="R8">
+        <v>4.707089578732001</v>
+      </c>
+      <c r="S8">
+        <v>0.01605249995762981</v>
+      </c>
+      <c r="T8">
+        <v>0.01076479874481558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>1.175998</v>
+      </c>
+      <c r="H9">
+        <v>2.351996</v>
+      </c>
+      <c r="I9">
+        <v>0.01759404180949881</v>
+      </c>
+      <c r="J9">
+        <v>0.01179855596866736</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06406299999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.192189</v>
+      </c>
+      <c r="O9">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="P9">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="Q9">
+        <v>0.07533795987400001</v>
+      </c>
+      <c r="R9">
+        <v>0.452027759244</v>
+      </c>
+      <c r="S9">
+        <v>0.001541541851869002</v>
+      </c>
+      <c r="T9">
+        <v>0.001033757223851775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>20.828839</v>
+      </c>
+      <c r="H10">
+        <v>62.48651700000001</v>
+      </c>
+      <c r="I10">
+        <v>0.3116191219792205</v>
+      </c>
+      <c r="J10">
+        <v>0.31345744980501</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6671056666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.001317</v>
+      </c>
+      <c r="O10">
+        <v>0.91238273339576</v>
+      </c>
+      <c r="P10">
+        <v>0.91238273339576</v>
+      </c>
+      <c r="Q10">
+        <v>13.89503652698767</v>
+      </c>
+      <c r="R10">
+        <v>125.055328742889</v>
+      </c>
+      <c r="S10">
+        <v>0.284315906289788</v>
+      </c>
+      <c r="T10">
+        <v>0.2859931648563593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>20.828839</v>
+      </c>
+      <c r="H11">
+        <v>62.48651700000001</v>
+      </c>
+      <c r="I11">
+        <v>0.3116191219792205</v>
+      </c>
+      <c r="J11">
+        <v>0.31345744980501</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.06406299999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.192189</v>
+      </c>
+      <c r="O11">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="P11">
+        <v>0.08761726660423996</v>
+      </c>
+      <c r="Q11">
+        <v>1.334357912857</v>
+      </c>
+      <c r="R11">
+        <v>12.009221215713</v>
+      </c>
+      <c r="S11">
+        <v>0.02730321568943254</v>
+      </c>
+      <c r="T11">
+        <v>0.02746428494865073</v>
       </c>
     </row>
   </sheetData>
